--- a/22310013【畑中雅人】個人製作企画書2.xlsx
+++ b/22310013【畑中雅人】個人製作企画書2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hatam\Desktop\授業用\システム開発\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hatam\Desktop\授業用\システム開発提出\22310013-hatanakamasato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CB17E6-CB5F-4594-894F-6CEEBF3C1358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096448B6-036D-4EEB-8A86-D690F64BA611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -617,31 +617,28 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レトロなRPG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>昔の懐かしい感じがするRPGを作る</t>
-    <rPh sb="0" eb="1">
-      <t>ムカシ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ナツ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ドラクエ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RPG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RPG好きが楽しめるゲームを作る</t>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -971,6 +968,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -997,6 +1012,27 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1034,53 +1070,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="31">
@@ -1979,8 +1976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E3C267-DE9C-4466-8E4B-5967057A7BC8}">
   <dimension ref="A1:Z60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32:O32"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1993,96 +1990,96 @@
       <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
     </row>
     <row r="5" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2091,118 +2088,118 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
+      <c r="A7" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
     </row>
     <row r="11" spans="1:26" ht="7.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
@@ -2211,118 +2208,118 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
+      <c r="A13" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
     </row>
     <row r="17" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
@@ -2331,122 +2328,122 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="30" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="32"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="43"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="38"/>
+      <c r="A20" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="11"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="38"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="11"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="38"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="11"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
@@ -2482,120 +2479,120 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="30" t="s">
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="32"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="43"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="38"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="11"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="38"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="38"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="11"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
@@ -2631,344 +2628,344 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="30" t="s">
+      <c r="B31" s="27"/>
+      <c r="C31" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="30" t="s">
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="30" t="s">
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="31"/>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="31"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="39">
+      <c r="A32" s="24">
         <v>1</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="38"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="11"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" s="39">
+      <c r="A33" s="24">
         <v>2</v>
       </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="38"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="11"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" s="39">
+      <c r="A34" s="24">
         <v>3</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="38"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="11"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="39">
+      <c r="A35" s="24">
         <v>4</v>
       </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="38"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="11"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="39">
+      <c r="A36" s="24">
         <v>5</v>
       </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="37"/>
-      <c r="Z36" s="38"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="11"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="39">
+      <c r="A37" s="24">
         <v>6</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="38"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="11"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="39">
+      <c r="A38" s="24">
         <v>7</v>
       </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="38"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="11"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="39">
+      <c r="A39" s="24">
         <v>8</v>
       </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="37"/>
-      <c r="Y39" s="37"/>
-      <c r="Z39" s="38"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="11"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="39">
+      <c r="A40" s="24">
         <v>9</v>
       </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="37"/>
-      <c r="U40" s="37"/>
-      <c r="V40" s="37"/>
-      <c r="W40" s="37"/>
-      <c r="X40" s="37"/>
-      <c r="Y40" s="37"/>
-      <c r="Z40" s="38"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="11"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="39">
+      <c r="A41" s="24">
         <v>10</v>
       </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="37"/>
-      <c r="U41" s="37"/>
-      <c r="V41" s="37"/>
-      <c r="W41" s="37"/>
-      <c r="X41" s="37"/>
-      <c r="Y41" s="37"/>
-      <c r="Z41" s="38"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="11"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
@@ -3005,200 +3002,200 @@
       <c r="N43" s="2"/>
     </row>
     <row r="44" spans="1:26" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="10"/>
-      <c r="W44" s="10"/>
-      <c r="X44" s="10"/>
-      <c r="Y44" s="10"/>
-      <c r="Z44" s="11"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="17"/>
     </row>
     <row r="45" spans="1:26" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="13"/>
-      <c r="X45" s="13"/>
-      <c r="Y45" s="13"/>
-      <c r="Z45" s="14"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="19"/>
+      <c r="X45" s="19"/>
+      <c r="Y45" s="19"/>
+      <c r="Z45" s="20"/>
     </row>
     <row r="46" spans="1:26" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="12"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="13"/>
-      <c r="W46" s="13"/>
-      <c r="X46" s="13"/>
-      <c r="Y46" s="13"/>
-      <c r="Z46" s="14"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="19"/>
+      <c r="X46" s="19"/>
+      <c r="Y46" s="19"/>
+      <c r="Z46" s="20"/>
     </row>
     <row r="47" spans="1:26" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="12"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="13"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="13"/>
-      <c r="V47" s="13"/>
-      <c r="W47" s="13"/>
-      <c r="X47" s="13"/>
-      <c r="Y47" s="13"/>
-      <c r="Z47" s="14"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
+      <c r="Y47" s="19"/>
+      <c r="Z47" s="20"/>
     </row>
     <row r="48" spans="1:26" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="12"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="13"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="13"/>
-      <c r="X48" s="13"/>
-      <c r="Y48" s="13"/>
-      <c r="Z48" s="14"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
+      <c r="Y48" s="19"/>
+      <c r="Z48" s="20"/>
     </row>
     <row r="49" spans="1:26" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="13"/>
-      <c r="U49" s="13"/>
-      <c r="V49" s="13"/>
-      <c r="W49" s="13"/>
-      <c r="X49" s="13"/>
-      <c r="Y49" s="13"/>
-      <c r="Z49" s="14"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+      <c r="Y49" s="19"/>
+      <c r="Z49" s="20"/>
     </row>
     <row r="50" spans="1:26" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
-      <c r="S50" s="16"/>
-      <c r="T50" s="16"/>
-      <c r="U50" s="16"/>
-      <c r="V50" s="16"/>
-      <c r="W50" s="16"/>
-      <c r="X50" s="16"/>
-      <c r="Y50" s="16"/>
-      <c r="Z50" s="17"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="22"/>
+      <c r="T50" s="22"/>
+      <c r="U50" s="22"/>
+      <c r="V50" s="22"/>
+      <c r="W50" s="22"/>
+      <c r="X50" s="22"/>
+      <c r="Y50" s="22"/>
+      <c r="Z50" s="23"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
@@ -3209,223 +3206,242 @@
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="9" t="s">
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="O54" s="18"/>
-      <c r="P54" s="18"/>
-      <c r="Q54" s="18"/>
-      <c r="R54" s="18"/>
-      <c r="S54" s="18"/>
-      <c r="T54" s="18"/>
-      <c r="U54" s="18"/>
-      <c r="V54" s="18"/>
-      <c r="W54" s="18"/>
-      <c r="X54" s="18"/>
-      <c r="Y54" s="18"/>
-      <c r="Z54" s="19"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="31"/>
+      <c r="T54" s="31"/>
+      <c r="U54" s="31"/>
+      <c r="V54" s="31"/>
+      <c r="W54" s="31"/>
+      <c r="X54" s="31"/>
+      <c r="Y54" s="31"/>
+      <c r="Z54" s="32"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A55" s="12"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="21"/>
-      <c r="T55" s="21"/>
-      <c r="U55" s="21"/>
-      <c r="V55" s="21"/>
-      <c r="W55" s="21"/>
-      <c r="X55" s="21"/>
-      <c r="Y55" s="21"/>
-      <c r="Z55" s="22"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="33"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="34"/>
+      <c r="S55" s="34"/>
+      <c r="T55" s="34"/>
+      <c r="U55" s="34"/>
+      <c r="V55" s="34"/>
+      <c r="W55" s="34"/>
+      <c r="X55" s="34"/>
+      <c r="Y55" s="34"/>
+      <c r="Z55" s="35"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A56" s="12"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="21"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="21"/>
-      <c r="T56" s="21"/>
-      <c r="U56" s="21"/>
-      <c r="V56" s="21"/>
-      <c r="W56" s="21"/>
-      <c r="X56" s="21"/>
-      <c r="Y56" s="21"/>
-      <c r="Z56" s="22"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="33"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
+      <c r="Q56" s="34"/>
+      <c r="R56" s="34"/>
+      <c r="S56" s="34"/>
+      <c r="T56" s="34"/>
+      <c r="U56" s="34"/>
+      <c r="V56" s="34"/>
+      <c r="W56" s="34"/>
+      <c r="X56" s="34"/>
+      <c r="Y56" s="34"/>
+      <c r="Z56" s="35"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A57" s="12"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="20"/>
-      <c r="O57" s="21"/>
-      <c r="P57" s="21"/>
-      <c r="Q57" s="21"/>
-      <c r="R57" s="21"/>
-      <c r="S57" s="21"/>
-      <c r="T57" s="21"/>
-      <c r="U57" s="21"/>
-      <c r="V57" s="21"/>
-      <c r="W57" s="21"/>
-      <c r="X57" s="21"/>
-      <c r="Y57" s="21"/>
-      <c r="Z57" s="22"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="34"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="34"/>
+      <c r="S57" s="34"/>
+      <c r="T57" s="34"/>
+      <c r="U57" s="34"/>
+      <c r="V57" s="34"/>
+      <c r="W57" s="34"/>
+      <c r="X57" s="34"/>
+      <c r="Y57" s="34"/>
+      <c r="Z57" s="35"/>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A58" s="12"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="20"/>
-      <c r="O58" s="21"/>
-      <c r="P58" s="21"/>
-      <c r="Q58" s="21"/>
-      <c r="R58" s="21"/>
-      <c r="S58" s="21"/>
-      <c r="T58" s="21"/>
-      <c r="U58" s="21"/>
-      <c r="V58" s="21"/>
-      <c r="W58" s="21"/>
-      <c r="X58" s="21"/>
-      <c r="Y58" s="21"/>
-      <c r="Z58" s="22"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="34"/>
+      <c r="T58" s="34"/>
+      <c r="U58" s="34"/>
+      <c r="V58" s="34"/>
+      <c r="W58" s="34"/>
+      <c r="X58" s="34"/>
+      <c r="Y58" s="34"/>
+      <c r="Z58" s="35"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A59" s="12"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="21"/>
-      <c r="P59" s="21"/>
-      <c r="Q59" s="21"/>
-      <c r="R59" s="21"/>
-      <c r="S59" s="21"/>
-      <c r="T59" s="21"/>
-      <c r="U59" s="21"/>
-      <c r="V59" s="21"/>
-      <c r="W59" s="21"/>
-      <c r="X59" s="21"/>
-      <c r="Y59" s="21"/>
-      <c r="Z59" s="22"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="33"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="34"/>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="34"/>
+      <c r="S59" s="34"/>
+      <c r="T59" s="34"/>
+      <c r="U59" s="34"/>
+      <c r="V59" s="34"/>
+      <c r="W59" s="34"/>
+      <c r="X59" s="34"/>
+      <c r="Y59" s="34"/>
+      <c r="Z59" s="35"/>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="23"/>
-      <c r="O60" s="24"/>
-      <c r="P60" s="24"/>
-      <c r="Q60" s="24"/>
-      <c r="R60" s="24"/>
-      <c r="S60" s="24"/>
-      <c r="T60" s="24"/>
-      <c r="U60" s="24"/>
-      <c r="V60" s="24"/>
-      <c r="W60" s="24"/>
-      <c r="X60" s="24"/>
-      <c r="Y60" s="24"/>
-      <c r="Z60" s="25"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="37"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="37"/>
+      <c r="T60" s="37"/>
+      <c r="U60" s="37"/>
+      <c r="V60" s="37"/>
+      <c r="W60" s="37"/>
+      <c r="X60" s="37"/>
+      <c r="Y60" s="37"/>
+      <c r="Z60" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="P41:Z41"/>
-    <mergeCell ref="P33:Z33"/>
-    <mergeCell ref="P34:Z34"/>
-    <mergeCell ref="P35:Z35"/>
-    <mergeCell ref="P36:Z36"/>
-    <mergeCell ref="P37:Z37"/>
-    <mergeCell ref="G33:O33"/>
-    <mergeCell ref="G34:O34"/>
-    <mergeCell ref="G35:O35"/>
-    <mergeCell ref="G36:O36"/>
-    <mergeCell ref="G37:O37"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="A54:M60"/>
+    <mergeCell ref="N54:Z60"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="A2:Z4"/>
+    <mergeCell ref="A7:Z10"/>
+    <mergeCell ref="A13:Z16"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G19:Z19"/>
+    <mergeCell ref="G20:Z20"/>
+    <mergeCell ref="G21:Z21"/>
+    <mergeCell ref="G22:Z22"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:Z25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:Z26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:Z27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:Z28"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:O31"/>
+    <mergeCell ref="P31:Z31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:O32"/>
+    <mergeCell ref="P32:Z32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="A44:Z50"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
@@ -3442,41 +3458,22 @@
     <mergeCell ref="P38:Z38"/>
     <mergeCell ref="P39:Z39"/>
     <mergeCell ref="P40:Z40"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:O31"/>
-    <mergeCell ref="P31:Z31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:O32"/>
-    <mergeCell ref="P32:Z32"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:Z26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:Z27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:Z28"/>
-    <mergeCell ref="A54:M60"/>
-    <mergeCell ref="N54:Z60"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="A2:Z4"/>
-    <mergeCell ref="A7:Z10"/>
-    <mergeCell ref="A13:Z16"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G19:Z19"/>
-    <mergeCell ref="G20:Z20"/>
-    <mergeCell ref="G21:Z21"/>
-    <mergeCell ref="G22:Z22"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:Z25"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G33:O33"/>
+    <mergeCell ref="G34:O34"/>
+    <mergeCell ref="G35:O35"/>
+    <mergeCell ref="G36:O36"/>
+    <mergeCell ref="G37:O37"/>
+    <mergeCell ref="P41:Z41"/>
+    <mergeCell ref="P33:Z33"/>
+    <mergeCell ref="P34:Z34"/>
+    <mergeCell ref="P35:Z35"/>
+    <mergeCell ref="P36:Z36"/>
+    <mergeCell ref="P37:Z37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.55000000000000004" bottom="0.55000000000000004" header="0.30000000000000004" footer="0.30000000000000004"/>
@@ -3775,98 +3772,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="W1" s="26" t="s">
+      <c r="W1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
     </row>
     <row r="5" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3875,118 +3872,118 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
     </row>
     <row r="11" spans="1:26" ht="7.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
@@ -3995,118 +3992,118 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
     </row>
     <row r="17" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
@@ -4115,118 +4112,118 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="42"/>
     </row>
     <row r="23" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
@@ -4234,290 +4231,290 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="41"/>
     </row>
     <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="28">
+      <c r="A25" s="41">
         <v>1</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="45" t="s">
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="45"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="45"/>
-      <c r="Z25" s="45"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="44"/>
     </row>
     <row r="26" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="28">
+      <c r="A26" s="41">
         <v>2</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="45" t="s">
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="45"/>
-      <c r="Y26" s="45"/>
-      <c r="Z26" s="45"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="44"/>
+      <c r="Z26" s="44"/>
     </row>
     <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28">
+      <c r="A27" s="41">
         <v>3</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="45" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="45"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="45"/>
-      <c r="Y27" s="45"/>
-      <c r="Z27" s="45"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="44"/>
     </row>
     <row r="28" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="28">
+      <c r="A28" s="41">
         <v>4</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="45" t="s">
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="45"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="44"/>
+      <c r="Z28" s="44"/>
     </row>
     <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28">
+      <c r="A29" s="41">
         <v>5</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="45" t="s">
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="45"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="45"/>
-      <c r="Z29" s="45"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="44"/>
+      <c r="Z29" s="44"/>
     </row>
     <row r="30" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="28">
+      <c r="A30" s="41">
         <v>6</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="45" t="s">
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="45"/>
-      <c r="Z30" s="45"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="44"/>
+      <c r="Y30" s="44"/>
+      <c r="Z30" s="44"/>
     </row>
     <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28">
+      <c r="A31" s="41">
         <v>7</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="45" t="s">
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="45"/>
-      <c r="Z31" s="45"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
+      <c r="W31" s="44"/>
+      <c r="X31" s="44"/>
+      <c r="Y31" s="44"/>
+      <c r="Z31" s="44"/>
     </row>
     <row r="32" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28">
+      <c r="A32" s="41">
         <v>8</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="45"/>
-      <c r="V32" s="45"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="45"/>
-      <c r="Z32" s="45"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="44"/>
+      <c r="X32" s="44"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="44"/>
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
@@ -4556,226 +4553,208 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="9" t="s">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="18"/>
-      <c r="V35" s="18"/>
-      <c r="W35" s="18"/>
-      <c r="X35" s="18"/>
-      <c r="Y35" s="18"/>
-      <c r="Z35" s="19"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="32"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="21"/>
-      <c r="Y36" s="21"/>
-      <c r="Z36" s="22"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="34"/>
+      <c r="W36" s="34"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="35"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="21"/>
-      <c r="Z37" s="22"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="35"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="22"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="34"/>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="35"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="22"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="35"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="21"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="21"/>
-      <c r="Z40" s="22"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="34"/>
+      <c r="V40" s="34"/>
+      <c r="W40" s="34"/>
+      <c r="X40" s="34"/>
+      <c r="Y40" s="34"/>
+      <c r="Z40" s="35"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="24"/>
-      <c r="S41" s="24"/>
-      <c r="T41" s="24"/>
-      <c r="U41" s="24"/>
-      <c r="V41" s="24"/>
-      <c r="W41" s="24"/>
-      <c r="X41" s="24"/>
-      <c r="Y41" s="24"/>
-      <c r="Z41" s="25"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="37"/>
+      <c r="Z41" s="38"/>
     </row>
     <row r="42" spans="1:26" ht="9.65" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:Z31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:Z32"/>
-    <mergeCell ref="A35:M41"/>
-    <mergeCell ref="N35:Z41"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:Z28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:Z29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:Z30"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:Z25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:Z26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:Z27"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:Z24"/>
     <mergeCell ref="W1:Z1"/>
@@ -4783,6 +4762,24 @@
     <mergeCell ref="A7:Z10"/>
     <mergeCell ref="A13:Z16"/>
     <mergeCell ref="A19:Z22"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:Z25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:Z26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:Z27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:Z28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:Z29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:Z30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:Z31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:Z32"/>
+    <mergeCell ref="A35:M41"/>
+    <mergeCell ref="N35:Z41"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.55000000000000004" bottom="0.55000000000000004" header="0.30000000000000004" footer="0.30000000000000004"/>
@@ -4912,6 +4909,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100607CFEA9279ED04E9D3ED0C5CB906D80" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="512ecd7edbafcd1ebf62fbb9f6d3da71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d287decf-c884-4834-8617-a14e3ef844bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54e415c3962f1bffb5891f93df98a945" ns2:_="">
     <xsd:import namespace="d287decf-c884-4834-8617-a14e3ef844bb"/>
@@ -5067,22 +5079,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC27DCD-7310-4DD2-A911-980BEC263333}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9aaa2829-13f4-4386-8c7c-25caccd2f50b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10C234AA-FB2C-46C2-97C1-B301B0DD0005}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B223FBE8-2DB6-425F-8345-6EA293EC9BB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5098,22 +5113,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10C234AA-FB2C-46C2-97C1-B301B0DD0005}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC27DCD-7310-4DD2-A911-980BEC263333}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9aaa2829-13f4-4386-8c7c-25caccd2f50b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>